--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1391683.325898324</v>
+        <v>1386066.765309685</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9808165.762114896</v>
+        <v>9808165.76211489</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>347.6472557445167</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.6472557445167</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>211.5718775168518</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.87820675200757</v>
+        <v>327.8962536792204</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15.67382493619353</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6743889408517</v>
+        <v>28.63814833404107</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I12" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5781910131661</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>73.08315800530887</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>171.1576701062731</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T13" t="n">
         <v>229.1176658249033</v>
@@ -1590,13 +1590,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>51.58147895005203</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T14" t="n">
         <v>211.5718775168518</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.53803410488948</v>
+        <v>32.25824234295533</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>131.866002837447</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I15" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>106.3026598562627</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>104.0862310125597</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5302226215153</v>
+        <v>194.2496145413891</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H17" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>94.63582534291845</v>
       </c>
       <c r="T17" t="n">
         <v>211.5718775168518</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>238.7487218722456</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100.5585643265083</v>
       </c>
       <c r="H18" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>8.099864593737074</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.4382740666146</v>
@@ -1985,13 +1985,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>182.9765894642221</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I19" t="n">
         <v>101.8915690324706</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>75.97402394103304</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>197.8202072239454</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>191.8208754515553</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>144.1195130549414</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.892257737875576</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>8.099864593737074</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>26.47352423496127</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5781910131661</v>
+        <v>70.18213812991624</v>
       </c>
       <c r="H22" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V22" t="n">
-        <v>72.15600333410926</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>253.7223571654782</v>
       </c>
       <c r="E23" t="n">
-        <v>242.4859176461422</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>114.3868274082149</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>82.53360302875372</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>8.099864593737074</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T24" t="n">
         <v>170.4382740666146</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.68129874593755</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2478,19 +2478,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>19.34717195788575</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>66.28169243326599</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T25" t="n">
         <v>229.1176658249033</v>
@@ -2535,16 +2535,16 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H26" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>65.04578494920646</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>37.17489932944719</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.5995654669896</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>58.02983373091958</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -2702,7 +2702,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2718,22 +2718,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>41.52479111519477</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>9.92669523952817</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>38.50948492514633</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H29" t="n">
-        <v>153.8709121481135</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>102.8932134595284</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>8.099864593737074</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.383934438105</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T30" t="n">
         <v>170.4382740666146</v>
@@ -2933,7 +2933,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>173.8857128734426</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2958,13 +2958,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H31" t="n">
         <v>145.0922268306807</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T31" t="n">
         <v>229.1176658249033</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>60.83734226176687</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U32" t="n">
         <v>253.0180469272126</v>
       </c>
       <c r="V32" t="n">
-        <v>9.2078049830995</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>90.8991304605036</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>82.53360302875394</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>207.8845624928813</v>
       </c>
       <c r="V33" t="n">
-        <v>210.8171058719967</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>104.229838573985</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I34" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1176658249033</v>
+        <v>12.90627978860354</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="D35" t="n">
-        <v>306.2077028597703</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>29.73268564672635</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.58168546106678</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>111.9031384496689</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3444,7 +3444,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I37" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U37" t="n">
-        <v>266.7063778426745</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.85247893128069</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>83.83972129300703</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>114.3868274082149</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5718775168518</v>
+        <v>191.8208754515553</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>347.6472557445165</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>26.72154926739796</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>170.4382740666146</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>174.9603240247429</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>93.94662107689378</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H40" t="n">
-        <v>129.3504732980259</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5302226215153</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3748,64 +3748,64 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.044134827276544</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F41" t="n">
         <v>347.6472557445165</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>253.0180469272126</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="H41" t="n">
-        <v>298.1635680324936</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>347.6472557445165</v>
+        <v>53.18965593255756</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -3839,7 +3839,7 @@
         <v>75.9714710107498</v>
       </c>
       <c r="I42" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.0028127073468</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3884,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>112.430780887492</v>
       </c>
     </row>
     <row r="43">
@@ -3903,13 +3903,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5781910131661</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>43.03841655390459</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>37.58871201777091</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>347.6472557445165</v>
       </c>
       <c r="D44" t="n">
-        <v>53.18965593255756</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G44" t="n">
         <v>347.6472557445165</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>306.2077028597701</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>114.9901662816136</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>204.7272498233631</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T46" t="n">
-        <v>167.0254563751713</v>
+        <v>48.39931614684999</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.81178045956133</v>
+        <v>378.9706246459418</v>
       </c>
       <c r="C11" t="n">
         <v>27.81178045956133</v>
@@ -5044,10 +5044,10 @@
         <v>97.37723928323612</v>
       </c>
       <c r="K11" t="n">
-        <v>234.6178659349241</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L11" t="n">
-        <v>428.8631441503476</v>
+        <v>428.8631441503474</v>
       </c>
       <c r="M11" t="n">
         <v>665.5835775618964</v>
@@ -5062,31 +5062,31 @@
         <v>1296.899282459867</v>
       </c>
       <c r="Q11" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="R11" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="S11" t="n">
         <v>1275.046773070779</v>
       </c>
       <c r="T11" t="n">
-        <v>1061.337805882039</v>
+        <v>1061.33780588204</v>
       </c>
       <c r="U11" t="n">
-        <v>805.7640211070773</v>
+        <v>1061.33780588204</v>
       </c>
       <c r="V11" t="n">
-        <v>805.7640211070773</v>
+        <v>1061.33780588204</v>
       </c>
       <c r="W11" t="n">
-        <v>454.6051769206969</v>
+        <v>1061.33780588204</v>
       </c>
       <c r="X11" t="n">
-        <v>103.4463327343165</v>
+        <v>1061.33780588204</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.81178045956133</v>
+        <v>730.1294688323223</v>
       </c>
     </row>
     <row r="12">
@@ -5096,58 +5096,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>437.2240856673775</v>
+        <v>257.909868742885</v>
       </c>
       <c r="C12" t="n">
-        <v>437.2240856673775</v>
+        <v>257.909868742885</v>
       </c>
       <c r="D12" t="n">
-        <v>307.1351182888578</v>
+        <v>257.909868742885</v>
       </c>
       <c r="E12" t="n">
-        <v>170.6886273997455</v>
+        <v>257.909868742885</v>
       </c>
       <c r="F12" t="n">
-        <v>154.8564809995501</v>
+        <v>133.4780626260168</v>
       </c>
       <c r="G12" t="n">
-        <v>35.99346186737655</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H12" t="n">
-        <v>35.99346186737655</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I12" t="n">
         <v>27.81178045956133</v>
       </c>
       <c r="J12" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K12" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L12" t="n">
-        <v>455.9251896399577</v>
+        <v>517.984524315909</v>
       </c>
       <c r="M12" t="n">
-        <v>661.668952059028</v>
+        <v>723.7282867349793</v>
       </c>
       <c r="N12" t="n">
-        <v>1005.8397352461</v>
+        <v>944.2830935308461</v>
       </c>
       <c r="O12" t="n">
-        <v>1193.161427706152</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P12" t="n">
-        <v>1330.937107419341</v>
+        <v>1269.380465704088</v>
       </c>
       <c r="Q12" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R12" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="S12" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="T12" t="n">
         <v>1218.429150183506</v>
@@ -5159,13 +5159,13 @@
         <v>1008.44474362504</v>
       </c>
       <c r="W12" t="n">
-        <v>778.3274977583271</v>
+        <v>778.3274977583274</v>
       </c>
       <c r="X12" t="n">
-        <v>589.0204201083388</v>
+        <v>589.0204201083391</v>
       </c>
       <c r="Y12" t="n">
-        <v>589.0204201083388</v>
+        <v>409.7062031838463</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.1790954729314</v>
+        <v>424.5169632726779</v>
       </c>
       <c r="C13" t="n">
-        <v>497.1790954729314</v>
+        <v>424.5169632726779</v>
       </c>
       <c r="D13" t="n">
-        <v>497.1790954729314</v>
+        <v>268.8838501751926</v>
       </c>
       <c r="E13" t="n">
-        <v>341.6202833321339</v>
+        <v>268.8838501751926</v>
       </c>
       <c r="F13" t="n">
-        <v>341.6202833321339</v>
+        <v>268.8838501751926</v>
       </c>
       <c r="G13" t="n">
-        <v>174.3695853390368</v>
+        <v>101.6331521820956</v>
       </c>
       <c r="H13" t="n">
-        <v>27.81178045956133</v>
+        <v>101.6331521820956</v>
       </c>
       <c r="I13" t="n">
         <v>27.81178045956133</v>
       </c>
       <c r="J13" t="n">
-        <v>27.81178045956133</v>
+        <v>67.56364899248433</v>
       </c>
       <c r="K13" t="n">
-        <v>223.898758080498</v>
+        <v>263.650626613421</v>
       </c>
       <c r="L13" t="n">
-        <v>283.3036120625986</v>
+        <v>573.9814096562983</v>
       </c>
       <c r="M13" t="n">
-        <v>623.7459056793512</v>
+        <v>914.4237032730509</v>
       </c>
       <c r="N13" t="n">
-        <v>764.3064368712626</v>
+        <v>1248.098693117216</v>
       </c>
       <c r="O13" t="n">
-        <v>1066.008786766879</v>
+        <v>1297.999493477364</v>
       </c>
       <c r="P13" t="n">
-        <v>1304.821397249426</v>
+        <v>1328.307967577705</v>
       </c>
       <c r="Q13" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="R13" t="n">
-        <v>1390.589022978066</v>
+        <v>1390.589022978067</v>
       </c>
       <c r="S13" t="n">
-        <v>1217.702487517184</v>
+        <v>1205.258696202397</v>
       </c>
       <c r="T13" t="n">
-        <v>986.2705018354638</v>
+        <v>973.826710520676</v>
       </c>
       <c r="U13" t="n">
-        <v>986.2705018354638</v>
+        <v>973.826710520676</v>
       </c>
       <c r="V13" t="n">
-        <v>720.2911566562881</v>
+        <v>707.8473653415002</v>
       </c>
       <c r="W13" t="n">
-        <v>720.2911566562881</v>
+        <v>424.5169632726779</v>
       </c>
       <c r="X13" t="n">
-        <v>720.2911566562881</v>
+        <v>424.5169632726779</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.1790954729314</v>
+        <v>424.5169632726779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1083.407294067217</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="C14" t="n">
-        <v>1083.407294067217</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="D14" t="n">
-        <v>1083.407294067217</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="E14" t="n">
-        <v>1083.407294067217</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="F14" t="n">
-        <v>732.2484498808362</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="G14" t="n">
-        <v>381.0896056944559</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H14" t="n">
         <v>79.91428444951288</v>
@@ -5305,25 +5305,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S14" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070779</v>
       </c>
       <c r="T14" t="n">
-        <v>1176.880055789327</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="U14" t="n">
-        <v>1176.880055789327</v>
+        <v>805.7640211070773</v>
       </c>
       <c r="V14" t="n">
-        <v>1176.880055789327</v>
+        <v>463.6572118105956</v>
       </c>
       <c r="W14" t="n">
-        <v>1176.880055789327</v>
+        <v>463.6572118105956</v>
       </c>
       <c r="X14" t="n">
-        <v>1176.880055789327</v>
+        <v>112.4983676242152</v>
       </c>
       <c r="Y14" t="n">
-        <v>1083.407294067217</v>
+        <v>79.91428444951288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>430.069741537445</v>
+        <v>477.9344326939407</v>
       </c>
       <c r="C15" t="n">
-        <v>296.8717588733571</v>
+        <v>477.9344326939407</v>
       </c>
       <c r="D15" t="n">
-        <v>296.8717588733571</v>
+        <v>347.845465315421</v>
       </c>
       <c r="E15" t="n">
-        <v>160.4252679842448</v>
+        <v>347.845465315421</v>
       </c>
       <c r="F15" t="n">
-        <v>35.99346186737655</v>
+        <v>223.4136591985528</v>
       </c>
       <c r="G15" t="n">
-        <v>35.99346186737655</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H15" t="n">
-        <v>35.99346186737655</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I15" t="n">
         <v>27.81178045956133</v>
@@ -5360,19 +5360,19 @@
         <v>57.01289064179397</v>
       </c>
       <c r="K15" t="n">
-        <v>157.7228750988294</v>
+        <v>235.370382844091</v>
       </c>
       <c r="L15" t="n">
-        <v>323.2495293361815</v>
+        <v>579.5411660311624</v>
       </c>
       <c r="M15" t="n">
-        <v>528.9932917552518</v>
+        <v>785.2849284502328</v>
       </c>
       <c r="N15" t="n">
-        <v>749.5480985511185</v>
+        <v>1005.8397352461</v>
       </c>
       <c r="O15" t="n">
-        <v>986.7663242322692</v>
+        <v>1193.161427706152</v>
       </c>
       <c r="P15" t="n">
         <v>1330.937107419341</v>
@@ -5384,25 +5384,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S15" t="n">
-        <v>1390.589022978066</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T15" t="n">
-        <v>1390.589022978066</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U15" t="n">
-        <v>1180.6046164196</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="V15" t="n">
-        <v>1180.6046164196</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="W15" t="n">
-        <v>950.4873705528873</v>
+        <v>998.352061709383</v>
       </c>
       <c r="X15" t="n">
-        <v>761.1802929028991</v>
+        <v>809.0449840593947</v>
       </c>
       <c r="Y15" t="n">
-        <v>581.8660759784063</v>
+        <v>629.730767134902</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.113553361478</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="C16" t="n">
-        <v>445.9084354274672</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="D16" t="n">
-        <v>290.275322329982</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="E16" t="n">
-        <v>290.275322329982</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="F16" t="n">
-        <v>132.9493875429549</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="G16" t="n">
-        <v>27.81178045956133</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H16" t="n">
-        <v>27.81178045956133</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I16" t="n">
         <v>27.81178045956133</v>
@@ -5442,46 +5442,46 @@
         <v>263.650626613421</v>
       </c>
       <c r="L16" t="n">
-        <v>341.9907029458138</v>
+        <v>573.9814096562982</v>
       </c>
       <c r="M16" t="n">
-        <v>682.4329965625664</v>
+        <v>638.7333829645029</v>
       </c>
       <c r="N16" t="n">
-        <v>1016.107986406731</v>
+        <v>972.408372808668</v>
       </c>
       <c r="O16" t="n">
-        <v>1066.008786766879</v>
+        <v>1274.110722704284</v>
       </c>
       <c r="P16" t="n">
-        <v>1304.821397249426</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q16" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R16" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.589022978066</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="T16" t="n">
-        <v>1390.589022978066</v>
+        <v>895.0402513194745</v>
       </c>
       <c r="U16" t="n">
-        <v>1105.20495972401</v>
+        <v>698.8285194594855</v>
       </c>
       <c r="V16" t="n">
-        <v>839.2256145448347</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="W16" t="n">
-        <v>839.2256145448347</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="X16" t="n">
-        <v>839.2256145448347</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.113553361478</v>
+        <v>432.8491742803097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="C17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="D17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="E17" t="n">
-        <v>680.1459458908847</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="F17" t="n">
-        <v>680.1459458908847</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="G17" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H17" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I17" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J17" t="n">
-        <v>97.37723928323615</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K17" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L17" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M17" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N17" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O17" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P17" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q17" t="n">
         <v>1390.589022978066</v>
@@ -5542,25 +5542,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S17" t="n">
-        <v>1390.589022978066</v>
+        <v>1294.997280207441</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.880055789327</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="U17" t="n">
-        <v>921.3062710143652</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="V17" t="n">
-        <v>921.3062710143652</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="W17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="X17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="Y17" t="n">
-        <v>680.1459458908847</v>
+        <v>730.1294688323219</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>367.2530949695824</v>
+        <v>424.66849059691</v>
       </c>
       <c r="C18" t="n">
-        <v>367.2530949695824</v>
+        <v>274.0142601570022</v>
       </c>
       <c r="D18" t="n">
-        <v>237.1641275910627</v>
+        <v>274.0142601570022</v>
       </c>
       <c r="E18" t="n">
-        <v>237.1641275910627</v>
+        <v>137.56776926789</v>
       </c>
       <c r="F18" t="n">
-        <v>112.7323214741945</v>
+        <v>137.56776926789</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7323214741945</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H18" t="n">
         <v>35.99346186737655</v>
       </c>
       <c r="I18" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J18" t="n">
-        <v>156.4554366097561</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K18" t="n">
-        <v>257.1654210667915</v>
+        <v>157.7228750988294</v>
       </c>
       <c r="L18" t="n">
-        <v>422.6920753041436</v>
+        <v>323.2495293361815</v>
       </c>
       <c r="M18" t="n">
-        <v>628.4358377232139</v>
+        <v>528.9932917552518</v>
       </c>
       <c r="N18" t="n">
-        <v>848.9906445190807</v>
+        <v>749.5480985511185</v>
       </c>
       <c r="O18" t="n">
-        <v>1193.161427706152</v>
+        <v>936.8697910111712</v>
       </c>
       <c r="P18" t="n">
-        <v>1330.937107419341</v>
+        <v>1074.64547072436</v>
       </c>
       <c r="Q18" t="n">
         <v>1390.589022978066</v>
@@ -5621,25 +5621,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S18" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T18" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U18" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="V18" t="n">
-        <v>883.188484177685</v>
+        <v>995.8891485545728</v>
       </c>
       <c r="W18" t="n">
-        <v>698.3636463350365</v>
+        <v>765.7719026878597</v>
       </c>
       <c r="X18" t="n">
-        <v>698.3636463350365</v>
+        <v>576.4648250378714</v>
       </c>
       <c r="Y18" t="n">
-        <v>519.0494294105438</v>
+        <v>576.4648250378714</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.1751804914165</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="C19" t="n">
-        <v>609.1751804914165</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="D19" t="n">
-        <v>453.5420673939312</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="E19" t="n">
-        <v>297.9832552531337</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="F19" t="n">
-        <v>297.9832552531337</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="G19" t="n">
-        <v>130.7325572600367</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H19" t="n">
         <v>130.7325572600367</v>
       </c>
       <c r="I19" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J19" t="n">
         <v>67.5636489924843</v>
@@ -5688,37 +5688,37 @@
         <v>982.7434112226291</v>
       </c>
       <c r="O19" t="n">
-        <v>1284.445761118245</v>
+        <v>1066.008786766879</v>
       </c>
       <c r="P19" t="n">
-        <v>1390.589022978066</v>
+        <v>1304.821397249425</v>
       </c>
       <c r="Q19" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R19" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S19" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="T19" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="U19" t="n">
-        <v>1105.20495972401</v>
+        <v>1026.418500522809</v>
       </c>
       <c r="V19" t="n">
-        <v>1105.20495972401</v>
+        <v>760.4391553436329</v>
       </c>
       <c r="W19" t="n">
-        <v>1028.463521399735</v>
+        <v>477.1087532748106</v>
       </c>
       <c r="X19" t="n">
-        <v>794.3831991827178</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="Y19" t="n">
-        <v>794.3831991827178</v>
+        <v>277.2903621395122</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.9706246459416</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="C20" t="n">
-        <v>378.9706246459416</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="D20" t="n">
-        <v>378.9706246459416</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="E20" t="n">
-        <v>378.9706246459416</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="F20" t="n">
-        <v>27.81178045956132</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="G20" t="n">
-        <v>27.81178045956132</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="H20" t="n">
         <v>27.81178045956132</v>
@@ -5779,25 +5779,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S20" t="n">
-        <v>1275.046773070778</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T20" t="n">
-        <v>1081.288313018702</v>
+        <v>1176.880055789327</v>
       </c>
       <c r="U20" t="n">
-        <v>1081.288313018702</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="V20" t="n">
-        <v>1081.288313018702</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="W20" t="n">
-        <v>730.1294688323219</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="X20" t="n">
-        <v>730.1294688323219</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.1294688323219</v>
+        <v>1031.304790077265</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>569.3104809079389</v>
+        <v>160.4252679842448</v>
       </c>
       <c r="C21" t="n">
-        <v>418.6562504680311</v>
+        <v>160.4252679842448</v>
       </c>
       <c r="D21" t="n">
-        <v>418.6562504680311</v>
+        <v>160.4252679842448</v>
       </c>
       <c r="E21" t="n">
-        <v>282.2097595789188</v>
+        <v>160.4252679842448</v>
       </c>
       <c r="F21" t="n">
-        <v>157.7779534620506</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="G21" t="n">
-        <v>38.91493432987713</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H21" t="n">
         <v>35.99346186737655</v>
@@ -5831,25 +5831,25 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J21" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L21" t="n">
-        <v>323.2495293361815</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M21" t="n">
-        <v>528.9932917552518</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N21" t="n">
-        <v>749.5480985511185</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O21" t="n">
-        <v>936.8697910111712</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P21" t="n">
-        <v>1074.64547072436</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q21" t="n">
         <v>1341.202308725335</v>
@@ -5858,25 +5858,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S21" t="n">
-        <v>1390.589022978066</v>
+        <v>1363.848089407398</v>
       </c>
       <c r="T21" t="n">
-        <v>1390.589022978066</v>
+        <v>1191.688216612838</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.589022978066</v>
+        <v>981.7038100543718</v>
       </c>
       <c r="V21" t="n">
-        <v>1168.049021349133</v>
+        <v>759.1638084254389</v>
       </c>
       <c r="W21" t="n">
-        <v>937.9317754824199</v>
+        <v>529.0465625587258</v>
       </c>
       <c r="X21" t="n">
-        <v>748.6246978324316</v>
+        <v>339.7394849087375</v>
       </c>
       <c r="Y21" t="n">
-        <v>569.3104809079389</v>
+        <v>160.4252679842448</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>770.3792911641053</v>
+        <v>98.70282907563833</v>
       </c>
       <c r="C22" t="n">
-        <v>600.1741732300945</v>
+        <v>98.70282907563833</v>
       </c>
       <c r="D22" t="n">
-        <v>444.5410601326092</v>
+        <v>98.70282907563833</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5410601326092</v>
+        <v>98.70282907563833</v>
       </c>
       <c r="F22" t="n">
-        <v>444.5410601326092</v>
+        <v>98.70282907563833</v>
       </c>
       <c r="G22" t="n">
-        <v>277.2903621395122</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H22" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I22" t="n">
         <v>27.81178045956132</v>
@@ -5913,49 +5913,49 @@
         <v>67.5636489924843</v>
       </c>
       <c r="K22" t="n">
-        <v>98.79555387073958</v>
+        <v>263.650626613421</v>
       </c>
       <c r="L22" t="n">
-        <v>158.2004078528402</v>
+        <v>573.9814096562982</v>
       </c>
       <c r="M22" t="n">
-        <v>498.6427014695927</v>
+        <v>914.4237032730507</v>
       </c>
       <c r="N22" t="n">
-        <v>764.3064368712621</v>
+        <v>1248.098693117216</v>
       </c>
       <c r="O22" t="n">
-        <v>1066.008786766879</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P22" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q22" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R22" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S22" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T22" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U22" t="n">
-        <v>1311.802563776865</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="V22" t="n">
-        <v>1238.917711924229</v>
+        <v>839.2256145448342</v>
       </c>
       <c r="W22" t="n">
-        <v>955.5873098554066</v>
+        <v>555.8952124760119</v>
       </c>
       <c r="X22" t="n">
-        <v>955.5873098554066</v>
+        <v>321.814890258995</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.5873098554066</v>
+        <v>98.70282907563833</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>745.6488117826168</v>
+        <v>1165.550768413008</v>
       </c>
       <c r="C23" t="n">
-        <v>745.6488117826168</v>
+        <v>1165.550768413008</v>
       </c>
       <c r="D23" t="n">
-        <v>745.6488117826168</v>
+        <v>909.2655591549487</v>
       </c>
       <c r="E23" t="n">
-        <v>500.7135414329782</v>
+        <v>506.6820342714933</v>
       </c>
       <c r="F23" t="n">
-        <v>500.7135414329782</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="G23" t="n">
-        <v>89.78759580147111</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="H23" t="n">
-        <v>89.78759580147111</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="I23" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J23" t="n">
         <v>107.2505506351944</v>
@@ -6007,7 +6007,7 @@
         <v>1140.315925284408</v>
       </c>
       <c r="P23" t="n">
-        <v>1462.665578482622</v>
+        <v>1606.668936451962</v>
       </c>
       <c r="Q23" t="n">
         <v>1884.254590575978</v>
@@ -6019,22 +6019,22 @@
         <v>1768.71234066869</v>
       </c>
       <c r="T23" t="n">
-        <v>1768.71234066869</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="U23" t="n">
-        <v>1513.138555893728</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="V23" t="n">
-        <v>1513.138555893728</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="W23" t="n">
-        <v>1142.139520862016</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="X23" t="n">
-        <v>1142.139520862016</v>
+        <v>1165.550768413008</v>
       </c>
       <c r="Y23" t="n">
-        <v>745.6488117826168</v>
+        <v>1165.550768413008</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>664.2271276505606</v>
+        <v>416.3347703349748</v>
       </c>
       <c r="C24" t="n">
-        <v>513.5728972106529</v>
+        <v>265.680539895067</v>
       </c>
       <c r="D24" t="n">
-        <v>383.4839298321332</v>
+        <v>182.3132641084471</v>
       </c>
       <c r="E24" t="n">
-        <v>247.037438943021</v>
+        <v>45.86677321933477</v>
       </c>
       <c r="F24" t="n">
-        <v>122.6056328261528</v>
+        <v>45.86677321933477</v>
       </c>
       <c r="G24" t="n">
-        <v>122.6056328261528</v>
+        <v>45.86677321933477</v>
       </c>
       <c r="H24" t="n">
-        <v>45.86677321933479</v>
+        <v>45.86677321933477</v>
       </c>
       <c r="I24" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J24" t="n">
-        <v>261.6211969734796</v>
+        <v>131.3311052229516</v>
       </c>
       <c r="K24" t="n">
-        <v>368.0395119357356</v>
+        <v>597.684116390506</v>
       </c>
       <c r="L24" t="n">
-        <v>533.5661661730877</v>
+        <v>763.2107706278581</v>
       </c>
       <c r="M24" t="n">
-        <v>999.9191773406422</v>
+        <v>1229.563781795413</v>
       </c>
       <c r="N24" t="n">
-        <v>1220.473984136509</v>
+        <v>1450.118588591279</v>
       </c>
       <c r="O24" t="n">
-        <v>1686.826995304064</v>
+        <v>1637.440281051332</v>
       </c>
       <c r="P24" t="n">
-        <v>1824.602675017252</v>
+        <v>1775.215960764521</v>
       </c>
       <c r="Q24" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R24" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S24" t="n">
-        <v>1884.254590575978</v>
+        <v>1771.553926199089</v>
       </c>
       <c r="T24" t="n">
-        <v>1712.094717781418</v>
+        <v>1599.394053404529</v>
       </c>
       <c r="U24" t="n">
-        <v>1502.110311222952</v>
+        <v>1389.409646846063</v>
       </c>
       <c r="V24" t="n">
-        <v>1279.570309594019</v>
+        <v>1166.86964521713</v>
       </c>
       <c r="W24" t="n">
-        <v>1049.453063727306</v>
+        <v>936.7523993504171</v>
       </c>
       <c r="X24" t="n">
-        <v>860.1459860773175</v>
+        <v>747.4453217004288</v>
       </c>
       <c r="Y24" t="n">
-        <v>816.023462091522</v>
+        <v>568.1311047759361</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>586.0333394618596</v>
+        <v>224.4783877418749</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8282215278488</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="D25" t="n">
-        <v>260.1951084303635</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="E25" t="n">
-        <v>104.636296289566</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="F25" t="n">
-        <v>37.68509181151956</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="G25" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H25" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I25" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J25" t="n">
-        <v>77.43696034444254</v>
+        <v>77.43696034444258</v>
       </c>
       <c r="K25" t="n">
-        <v>273.5239379653793</v>
+        <v>273.5239379653792</v>
       </c>
       <c r="L25" t="n">
-        <v>583.8547210082565</v>
+        <v>583.8547210082564</v>
       </c>
       <c r="M25" t="n">
-        <v>924.2970146250091</v>
+        <v>924.297014625009</v>
       </c>
       <c r="N25" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O25" t="n">
-        <v>1559.674354364791</v>
+        <v>1559.67435436479</v>
       </c>
       <c r="P25" t="n">
-        <v>1798.486964847338</v>
+        <v>1798.486964847337</v>
       </c>
       <c r="Q25" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="R25" t="n">
-        <v>1805.468131374777</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S25" t="n">
-        <v>1805.468131374777</v>
+        <v>1698.924263800307</v>
       </c>
       <c r="T25" t="n">
-        <v>1574.036145693056</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.652082439</v>
+        <v>1182.108214864531</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.652082439</v>
+        <v>916.1288696853552</v>
       </c>
       <c r="W25" t="n">
-        <v>1005.321680370178</v>
+        <v>632.7984676165329</v>
       </c>
       <c r="X25" t="n">
-        <v>771.2413581531608</v>
+        <v>632.7984676165329</v>
       </c>
       <c r="Y25" t="n">
-        <v>771.2413581531608</v>
+        <v>409.6864064331762</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>807.8573555164364</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="C26" t="n">
-        <v>807.8573555164364</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="D26" t="n">
-        <v>807.8573555164364</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="E26" t="n">
-        <v>807.8573555164364</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="F26" t="n">
-        <v>390.9629170464141</v>
+        <v>448.6110374430266</v>
       </c>
       <c r="G26" t="n">
-        <v>390.9629170464141</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H26" t="n">
-        <v>89.78759580147111</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I26" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J26" t="n">
         <v>107.2505506351944</v>
@@ -6235,19 +6235,19 @@
         <v>438.7364555023055</v>
       </c>
       <c r="M26" t="n">
-        <v>905.08946666986</v>
+        <v>675.4568889138544</v>
       </c>
       <c r="N26" t="n">
-        <v>1371.442477837415</v>
+        <v>919.0066818678372</v>
       </c>
       <c r="O26" t="n">
-        <v>1624.108181530361</v>
+        <v>1140.315925284408</v>
       </c>
       <c r="P26" t="n">
-        <v>1790.564850057778</v>
+        <v>1362.190533931104</v>
       </c>
       <c r="Q26" t="n">
-        <v>1884.254590575978</v>
+        <v>1783.77954602446</v>
       </c>
       <c r="R26" t="n">
         <v>1884.254590575978</v>
@@ -6256,22 +6256,22 @@
         <v>1884.254590575978</v>
       </c>
       <c r="T26" t="n">
-        <v>1670.545623387239</v>
+        <v>1670.545623387238</v>
       </c>
       <c r="U26" t="n">
-        <v>1670.545623387239</v>
+        <v>1670.545623387238</v>
       </c>
       <c r="V26" t="n">
-        <v>1604.842810307232</v>
+        <v>1670.545623387238</v>
       </c>
       <c r="W26" t="n">
-        <v>1604.842810307232</v>
+        <v>1299.546588355526</v>
       </c>
       <c r="X26" t="n">
-        <v>1604.842810307232</v>
+        <v>1261.996184992448</v>
       </c>
       <c r="Y26" t="n">
-        <v>1208.352101227833</v>
+        <v>865.5054759130488</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>644.8194979963994</v>
+        <v>416.3347703349748</v>
       </c>
       <c r="C27" t="n">
-        <v>494.1652675564915</v>
+        <v>416.3347703349748</v>
       </c>
       <c r="D27" t="n">
-        <v>494.1652675564915</v>
+        <v>416.3347703349748</v>
       </c>
       <c r="E27" t="n">
         <v>357.7187766673792</v>
@@ -6299,58 +6299,58 @@
         <v>114.4239514183375</v>
       </c>
       <c r="H27" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I27" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J27" t="n">
-        <v>66.88620199375221</v>
+        <v>261.6211969734796</v>
       </c>
       <c r="K27" t="n">
-        <v>167.5961864507876</v>
+        <v>727.9742081410341</v>
       </c>
       <c r="L27" t="n">
-        <v>633.9491976183422</v>
+        <v>893.5008623783862</v>
       </c>
       <c r="M27" t="n">
-        <v>839.6929600374125</v>
+        <v>1099.244624797456</v>
       </c>
       <c r="N27" t="n">
-        <v>1060.247766833279</v>
+        <v>1319.799431593323</v>
       </c>
       <c r="O27" t="n">
-        <v>1526.600778000834</v>
+        <v>1507.121124053376</v>
       </c>
       <c r="P27" t="n">
-        <v>1775.215960764521</v>
+        <v>1644.896803766565</v>
       </c>
       <c r="Q27" t="n">
-        <v>1834.867876323247</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R27" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S27" t="n">
-        <v>1771.55392619909</v>
+        <v>1771.553926199089</v>
       </c>
       <c r="T27" t="n">
-        <v>1599.39405340453</v>
+        <v>1599.394053404529</v>
       </c>
       <c r="U27" t="n">
-        <v>1389.409646846064</v>
+        <v>1389.409646846063</v>
       </c>
       <c r="V27" t="n">
-        <v>1166.869645217131</v>
+        <v>1166.86964521713</v>
       </c>
       <c r="W27" t="n">
-        <v>936.7523993504176</v>
+        <v>936.7523993504171</v>
       </c>
       <c r="X27" t="n">
-        <v>747.4453217004293</v>
+        <v>747.4453217004288</v>
       </c>
       <c r="Y27" t="n">
-        <v>747.4453217004293</v>
+        <v>568.1311047759361</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>935.811414656861</v>
+        <v>407.1603779822491</v>
       </c>
       <c r="C28" t="n">
-        <v>765.6062967228502</v>
+        <v>236.9552600482383</v>
       </c>
       <c r="D28" t="n">
-        <v>609.973183625365</v>
+        <v>236.9552600482383</v>
       </c>
       <c r="E28" t="n">
-        <v>454.4143714845674</v>
+        <v>195.0110265985466</v>
       </c>
       <c r="F28" t="n">
-        <v>454.4143714845674</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="G28" t="n">
-        <v>287.1636734914704</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H28" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I28" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J28" t="n">
-        <v>77.4369603444425</v>
+        <v>77.43696034444253</v>
       </c>
       <c r="K28" t="n">
         <v>273.5239379653792</v>
@@ -6408,28 +6408,28 @@
         <v>1884.254590575978</v>
       </c>
       <c r="R28" t="n">
-        <v>1805.468131374777</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S28" t="n">
-        <v>1620.137804599107</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T28" t="n">
-        <v>1620.137804599107</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U28" t="n">
-        <v>1620.137804599107</v>
+        <v>1598.870527321922</v>
       </c>
       <c r="V28" t="n">
-        <v>1354.158459419931</v>
+        <v>1332.891182142746</v>
       </c>
       <c r="W28" t="n">
-        <v>1354.158459419931</v>
+        <v>1049.560780073924</v>
       </c>
       <c r="X28" t="n">
-        <v>1344.131494531519</v>
+        <v>815.480457856907</v>
       </c>
       <c r="Y28" t="n">
-        <v>1121.019433348162</v>
+        <v>592.3683966735504</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>971.7268858778946</v>
+        <v>1257.681770769303</v>
       </c>
       <c r="C29" t="n">
-        <v>578.5513843808251</v>
+        <v>1257.681770769303</v>
       </c>
       <c r="D29" t="n">
-        <v>193.1102555974928</v>
+        <v>1257.681770769303</v>
       </c>
       <c r="E29" t="n">
-        <v>193.1102555974928</v>
+        <v>1218.783301147943</v>
       </c>
       <c r="F29" t="n">
-        <v>193.1102555974928</v>
+        <v>801.8888626779212</v>
       </c>
       <c r="G29" t="n">
-        <v>193.1102555974928</v>
+        <v>390.9629170464141</v>
       </c>
       <c r="H29" t="n">
-        <v>37.68509181151956</v>
+        <v>89.78759580147111</v>
       </c>
       <c r="I29" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J29" t="n">
-        <v>291.1464642410104</v>
+        <v>368.4033631069451</v>
       </c>
       <c r="K29" t="n">
-        <v>428.3870908926982</v>
+        <v>505.6439897586329</v>
       </c>
       <c r="L29" t="n">
-        <v>622.6323691081216</v>
+        <v>699.8892679740562</v>
       </c>
       <c r="M29" t="n">
-        <v>859.3528025196705</v>
+        <v>936.6097013856051</v>
       </c>
       <c r="N29" t="n">
-        <v>1102.902595473653</v>
+        <v>1180.159494339588</v>
       </c>
       <c r="O29" t="n">
-        <v>1324.211838890224</v>
+        <v>1401.468737756159</v>
       </c>
       <c r="P29" t="n">
-        <v>1790.564850057778</v>
+        <v>1567.925406283576</v>
       </c>
       <c r="Q29" t="n">
         <v>1884.254590575978</v>
@@ -6490,25 +6490,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U29" t="n">
-        <v>1768.71234066869</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="V29" t="n">
-        <v>1768.71234066869</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="W29" t="n">
-        <v>1768.71234066869</v>
+        <v>1257.681770769303</v>
       </c>
       <c r="X29" t="n">
-        <v>1768.71234066869</v>
+        <v>1257.681770769303</v>
       </c>
       <c r="Y29" t="n">
-        <v>1372.221631589292</v>
+        <v>1257.681770769303</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>646.6436558936219</v>
+        <v>416.3347703349752</v>
       </c>
       <c r="C30" t="n">
-        <v>495.9894254537141</v>
+        <v>312.4022314869667</v>
       </c>
       <c r="D30" t="n">
-        <v>365.9004580751945</v>
+        <v>182.3132641084471</v>
       </c>
       <c r="E30" t="n">
-        <v>365.9004580751945</v>
+        <v>45.86677321933479</v>
       </c>
       <c r="F30" t="n">
-        <v>241.4686519583263</v>
+        <v>45.86677321933479</v>
       </c>
       <c r="G30" t="n">
-        <v>122.6056328261528</v>
+        <v>45.86677321933479</v>
       </c>
       <c r="H30" t="n">
         <v>45.86677321933479</v>
@@ -6545,22 +6545,22 @@
         <v>261.6211969734796</v>
       </c>
       <c r="K30" t="n">
-        <v>362.331181430515</v>
+        <v>727.9742081410341</v>
       </c>
       <c r="L30" t="n">
-        <v>527.8578356678671</v>
+        <v>1073.206733629074</v>
       </c>
       <c r="M30" t="n">
-        <v>733.6015980869374</v>
+        <v>1278.950496048144</v>
       </c>
       <c r="N30" t="n">
-        <v>954.1564048828042</v>
+        <v>1499.505302844011</v>
       </c>
       <c r="O30" t="n">
-        <v>1141.478097342857</v>
+        <v>1686.826995304064</v>
       </c>
       <c r="P30" t="n">
-        <v>1500.159311838007</v>
+        <v>1824.602675017252</v>
       </c>
       <c r="Q30" t="n">
         <v>1884.254590575978</v>
@@ -6569,25 +6569,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S30" t="n">
-        <v>1771.745565891023</v>
+        <v>1771.55392619909</v>
       </c>
       <c r="T30" t="n">
-        <v>1599.585693096463</v>
+        <v>1599.39405340453</v>
       </c>
       <c r="U30" t="n">
-        <v>1389.601286537997</v>
+        <v>1389.409646846064</v>
       </c>
       <c r="V30" t="n">
-        <v>1167.061284909064</v>
+        <v>1166.869645217131</v>
       </c>
       <c r="W30" t="n">
-        <v>1167.061284909064</v>
+        <v>936.7523993504176</v>
       </c>
       <c r="X30" t="n">
-        <v>977.7542072590761</v>
+        <v>747.4453217004293</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.4399903345833</v>
+        <v>568.1311047759366</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.6399398632886</v>
+        <v>834.6577605026152</v>
       </c>
       <c r="C31" t="n">
-        <v>495.4348219292779</v>
+        <v>664.4526425686045</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8017088317927</v>
+        <v>508.8195294711192</v>
       </c>
       <c r="E31" t="n">
-        <v>184.2428966909951</v>
+        <v>508.8195294711192</v>
       </c>
       <c r="F31" t="n">
-        <v>184.2428966909951</v>
+        <v>351.4935946840921</v>
       </c>
       <c r="G31" t="n">
         <v>184.2428966909951</v>
       </c>
       <c r="H31" t="n">
-        <v>37.68509181151963</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I31" t="n">
-        <v>37.68509181151963</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="J31" t="n">
-        <v>77.43696034444261</v>
+        <v>77.4369603444425</v>
       </c>
       <c r="K31" t="n">
-        <v>273.5239379653793</v>
+        <v>273.5239379653792</v>
       </c>
       <c r="L31" t="n">
-        <v>583.8547210082565</v>
+        <v>583.8547210082564</v>
       </c>
       <c r="M31" t="n">
-        <v>924.2970146250091</v>
+        <v>924.297014625009</v>
       </c>
       <c r="N31" t="n">
         <v>1257.972004469174</v>
@@ -6648,25 +6648,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S31" t="n">
-        <v>1884.254590575978</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T31" t="n">
-        <v>1652.822604894257</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="U31" t="n">
-        <v>1652.822604894257</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="V31" t="n">
-        <v>1591.370744023786</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="W31" t="n">
-        <v>1308.040341954963</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="X31" t="n">
-        <v>1073.960019737947</v>
+        <v>1233.411955901571</v>
       </c>
       <c r="Y31" t="n">
-        <v>850.8479585545899</v>
+        <v>1010.299894718214</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1218.885246975377</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="C32" t="n">
-        <v>825.7097454783072</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="D32" t="n">
-        <v>440.268616694975</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="E32" t="n">
-        <v>37.68509181151956</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="F32" t="n">
-        <v>37.68509181151956</v>
+        <v>448.6110374430266</v>
       </c>
       <c r="G32" t="n">
         <v>37.68509181151956</v>
@@ -6700,52 +6700,52 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J32" t="n">
-        <v>107.2505506351944</v>
+        <v>368.4033631069451</v>
       </c>
       <c r="K32" t="n">
-        <v>244.4911772868822</v>
+        <v>505.6439897586329</v>
       </c>
       <c r="L32" t="n">
-        <v>438.7364555023055</v>
+        <v>699.8892679740562</v>
       </c>
       <c r="M32" t="n">
-        <v>675.4568889138544</v>
+        <v>936.6097013856051</v>
       </c>
       <c r="N32" t="n">
-        <v>1002.427550922135</v>
+        <v>1180.159494339588</v>
       </c>
       <c r="O32" t="n">
-        <v>1223.736794338706</v>
+        <v>1401.468737756159</v>
       </c>
       <c r="P32" t="n">
-        <v>1690.089805506261</v>
+        <v>1567.925406283576</v>
       </c>
       <c r="Q32" t="n">
-        <v>1783.77954602446</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R32" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S32" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="T32" t="n">
-        <v>1884.254590575978</v>
+        <v>1555.003373479951</v>
       </c>
       <c r="U32" t="n">
-        <v>1628.680805801016</v>
+        <v>1299.429588704989</v>
       </c>
       <c r="V32" t="n">
-        <v>1619.379992686774</v>
+        <v>957.322779408507</v>
       </c>
       <c r="W32" t="n">
-        <v>1619.379992686774</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="X32" t="n">
-        <v>1619.379992686774</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.379992686774</v>
+        <v>865.5054759130488</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>656.0454462427455</v>
+        <v>416.334770334975</v>
       </c>
       <c r="C33" t="n">
-        <v>505.3912158028377</v>
+        <v>265.6805398950672</v>
       </c>
       <c r="D33" t="n">
-        <v>375.302248424318</v>
+        <v>182.3132641084471</v>
       </c>
       <c r="E33" t="n">
-        <v>238.8557575352057</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="F33" t="n">
-        <v>114.4239514183375</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="G33" t="n">
-        <v>114.4239514183375</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="H33" t="n">
-        <v>37.68509181151956</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="I33" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J33" t="n">
-        <v>203.4954130479391</v>
+        <v>261.6211969734796</v>
       </c>
       <c r="K33" t="n">
-        <v>304.2053975049745</v>
+        <v>533.8500019597449</v>
       </c>
       <c r="L33" t="n">
-        <v>469.7320517423266</v>
+        <v>699.376656197097</v>
       </c>
       <c r="M33" t="n">
-        <v>675.4758141613969</v>
+        <v>905.1204186161673</v>
       </c>
       <c r="N33" t="n">
-        <v>896.0306209572636</v>
+        <v>1125.675225412034</v>
       </c>
       <c r="O33" t="n">
-        <v>1362.383632124818</v>
+        <v>1312.996917872087</v>
       </c>
       <c r="P33" t="n">
-        <v>1500.159311838007</v>
+        <v>1450.772597585275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R33" t="n">
         <v>1884.254590575978</v>
@@ -6815,16 +6815,16 @@
         <v>1389.409646846063</v>
       </c>
       <c r="V33" t="n">
-        <v>1176.463075258188</v>
+        <v>1166.86964521713</v>
       </c>
       <c r="W33" t="n">
-        <v>1176.463075258188</v>
+        <v>936.7523993504174</v>
       </c>
       <c r="X33" t="n">
-        <v>987.1559976081996</v>
+        <v>747.4453217004291</v>
       </c>
       <c r="Y33" t="n">
-        <v>807.8417806837068</v>
+        <v>568.1311047759364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.4063938635522</v>
+        <v>677.3318257155881</v>
       </c>
       <c r="C34" t="n">
-        <v>609.1237286373048</v>
+        <v>507.1267077815774</v>
       </c>
       <c r="D34" t="n">
-        <v>453.4906155398195</v>
+        <v>351.4935946840921</v>
       </c>
       <c r="E34" t="n">
-        <v>297.931803399022</v>
+        <v>351.4935946840921</v>
       </c>
       <c r="F34" t="n">
-        <v>140.6058686119949</v>
+        <v>351.4935946840921</v>
       </c>
       <c r="G34" t="n">
-        <v>140.6058686119949</v>
+        <v>184.2428966909951</v>
       </c>
       <c r="H34" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I34" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J34" t="n">
-        <v>77.4369603444425</v>
+        <v>77.43696034444238</v>
       </c>
       <c r="K34" t="n">
-        <v>273.5239379653792</v>
+        <v>273.523937965379</v>
       </c>
       <c r="L34" t="n">
         <v>583.8547210082563</v>
@@ -6882,28 +6882,28 @@
         <v>1884.254590575978</v>
       </c>
       <c r="R34" t="n">
-        <v>1805.468131374776</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S34" t="n">
-        <v>1620.137804599106</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T34" t="n">
-        <v>1388.705818917386</v>
+        <v>1685.887617549193</v>
       </c>
       <c r="U34" t="n">
-        <v>1388.705818917386</v>
+        <v>1400.503554295137</v>
       </c>
       <c r="V34" t="n">
-        <v>1122.72647373821</v>
+        <v>1134.524209115962</v>
       </c>
       <c r="W34" t="n">
-        <v>1122.72647373821</v>
+        <v>1134.524209115962</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.72647373821</v>
+        <v>900.4438868989448</v>
       </c>
       <c r="Y34" t="n">
-        <v>899.6144125548535</v>
+        <v>677.3318257155881</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1039.430178791686</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="C35" t="n">
-        <v>688.2713346053056</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="D35" t="n">
-        <v>378.9706246459417</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="E35" t="n">
-        <v>27.81178045956132</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="F35" t="n">
-        <v>27.81178045956132</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="G35" t="n">
-        <v>27.81178045956132</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="H35" t="n">
         <v>27.81178045956132</v>
@@ -6940,22 +6940,22 @@
         <v>97.37723928323612</v>
       </c>
       <c r="K35" t="n">
-        <v>234.6178659349237</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L35" t="n">
         <v>428.8631441503471</v>
       </c>
       <c r="M35" t="n">
-        <v>665.5835775618959</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N35" t="n">
-        <v>909.1333705158788</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O35" t="n">
         <v>1130.44261393245</v>
       </c>
       <c r="P35" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q35" t="n">
         <v>1390.589022978066</v>
@@ -6964,25 +6964,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T35" t="n">
-        <v>1390.589022978066</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="U35" t="n">
-        <v>1390.589022978066</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="V35" t="n">
-        <v>1390.589022978066</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="W35" t="n">
-        <v>1390.589022978066</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="X35" t="n">
-        <v>1390.589022978066</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="Y35" t="n">
-        <v>1039.430178791686</v>
+        <v>1031.304790077265</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>433.7755209207549</v>
+        <v>548.6331519994612</v>
       </c>
       <c r="C36" t="n">
-        <v>283.1212904808471</v>
+        <v>397.9789215595534</v>
       </c>
       <c r="D36" t="n">
-        <v>283.1212904808471</v>
+        <v>267.8899541810338</v>
       </c>
       <c r="E36" t="n">
-        <v>146.6747995917348</v>
+        <v>154.85648099955</v>
       </c>
       <c r="F36" t="n">
-        <v>146.6747995917348</v>
+        <v>154.85648099955</v>
       </c>
       <c r="G36" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H36" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="I36" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J36" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K36" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L36" t="n">
-        <v>323.2495293361815</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M36" t="n">
-        <v>528.9932917552518</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N36" t="n">
-        <v>749.5480985511185</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O36" t="n">
-        <v>1093.71888173819</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P36" t="n">
-        <v>1231.494561451379</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q36" t="n">
         <v>1341.202308725335</v>
@@ -7043,25 +7043,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S36" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T36" t="n">
-        <v>1105.728485806618</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U36" t="n">
-        <v>1105.728485806618</v>
+        <v>1180.6046164196</v>
       </c>
       <c r="V36" t="n">
-        <v>883.1884841776848</v>
+        <v>958.0646147906671</v>
       </c>
       <c r="W36" t="n">
-        <v>653.0712383109717</v>
+        <v>727.9473689239539</v>
       </c>
       <c r="X36" t="n">
-        <v>653.0712383109717</v>
+        <v>727.9473689239539</v>
       </c>
       <c r="Y36" t="n">
-        <v>473.7570213864789</v>
+        <v>548.6331519994612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>614.74617806662</v>
+        <v>511.8254012661446</v>
       </c>
       <c r="C37" t="n">
-        <v>444.5410601326092</v>
+        <v>341.6202833321339</v>
       </c>
       <c r="D37" t="n">
-        <v>444.5410601326092</v>
+        <v>341.6202833321339</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5410601326092</v>
+        <v>341.6202833321339</v>
       </c>
       <c r="F37" t="n">
-        <v>444.5410601326092</v>
+        <v>341.6202833321339</v>
       </c>
       <c r="G37" t="n">
-        <v>277.2903621395122</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I37" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J37" t="n">
-        <v>27.81178045956132</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K37" t="n">
-        <v>59.04368533781661</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L37" t="n">
-        <v>369.3744683806939</v>
+        <v>175.956779138985</v>
       </c>
       <c r="M37" t="n">
-        <v>434.1264416888986</v>
+        <v>516.3990727557375</v>
       </c>
       <c r="N37" t="n">
-        <v>764.3064368712623</v>
+        <v>850.0740625999026</v>
       </c>
       <c r="O37" t="n">
-        <v>1066.008786766879</v>
+        <v>1151.776412495519</v>
       </c>
       <c r="P37" t="n">
-        <v>1304.821397249426</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q37" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R37" t="n">
-        <v>1390.589022978066</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S37" t="n">
-        <v>1390.589022978066</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="T37" t="n">
-        <v>1390.589022978066</v>
+        <v>895.040251319474</v>
       </c>
       <c r="U37" t="n">
-        <v>1121.188641318799</v>
+        <v>609.6561880654181</v>
       </c>
       <c r="V37" t="n">
-        <v>1121.188641318799</v>
+        <v>511.8254012661446</v>
       </c>
       <c r="W37" t="n">
-        <v>837.8582392499767</v>
+        <v>511.8254012661446</v>
       </c>
       <c r="X37" t="n">
-        <v>837.8582392499767</v>
+        <v>511.8254012661446</v>
       </c>
       <c r="Y37" t="n">
-        <v>614.74617806662</v>
+        <v>511.8254012661446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="C38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="D38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="E38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="F38" t="n">
         <v>27.81178045956132</v>
@@ -7180,19 +7180,19 @@
         <v>234.6178659349239</v>
       </c>
       <c r="L38" t="n">
-        <v>428.8631441503469</v>
+        <v>428.8631441503474</v>
       </c>
       <c r="M38" t="n">
-        <v>665.5835775618958</v>
+        <v>665.5835775618963</v>
       </c>
       <c r="N38" t="n">
-        <v>909.1333705158786</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O38" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P38" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q38" t="n">
         <v>1390.589022978066</v>
@@ -7204,22 +7204,22 @@
         <v>1275.046773070778</v>
       </c>
       <c r="T38" t="n">
-        <v>1061.337805882039</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="U38" t="n">
-        <v>805.7640211070768</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="V38" t="n">
-        <v>463.6572118105952</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="W38" t="n">
-        <v>112.4983676242149</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="X38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4983676242149</v>
+        <v>378.9706246459416</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>564.6335278826975</v>
+        <v>178.4660108994691</v>
       </c>
       <c r="C39" t="n">
-        <v>564.6335278826975</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D39" t="n">
-        <v>434.5445605041779</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E39" t="n">
-        <v>298.0980696150656</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F39" t="n">
-        <v>173.6662634981974</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G39" t="n">
-        <v>54.8032443660239</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H39" t="n">
         <v>27.81178045956132</v>
@@ -7271,10 +7271,10 @@
         <v>1131.604785990899</v>
       </c>
       <c r="P39" t="n">
-        <v>1330.93710741934</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q39" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R39" t="n">
         <v>1390.589022978066</v>
@@ -7286,19 +7286,19 @@
         <v>1105.728485806618</v>
       </c>
       <c r="U39" t="n">
-        <v>895.7440792481516</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="V39" t="n">
-        <v>895.7440792481516</v>
+        <v>929.0008857816247</v>
       </c>
       <c r="W39" t="n">
-        <v>895.7440792481516</v>
+        <v>698.8836399149116</v>
       </c>
       <c r="X39" t="n">
-        <v>895.7440792481516</v>
+        <v>509.5765622649232</v>
       </c>
       <c r="Y39" t="n">
-        <v>716.4298623236589</v>
+        <v>330.2623453404304</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.468824194941</v>
+        <v>696.7625717649835</v>
       </c>
       <c r="C40" t="n">
-        <v>158.468824194941</v>
+        <v>696.7625717649835</v>
       </c>
       <c r="D40" t="n">
-        <v>158.468824194941</v>
+        <v>696.7625717649835</v>
       </c>
       <c r="E40" t="n">
-        <v>158.468824194941</v>
+        <v>601.8669949196362</v>
       </c>
       <c r="F40" t="n">
-        <v>158.468824194941</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="G40" t="n">
-        <v>158.468824194941</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H40" t="n">
-        <v>27.81178045956132</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I40" t="n">
         <v>27.81178045956132</v>
@@ -7335,49 +7335,49 @@
         <v>27.81178045956132</v>
       </c>
       <c r="K40" t="n">
-        <v>223.898758080498</v>
+        <v>59.0436853378166</v>
       </c>
       <c r="L40" t="n">
-        <v>534.2295411233753</v>
+        <v>369.3744683806939</v>
       </c>
       <c r="M40" t="n">
-        <v>874.6718347401278</v>
+        <v>709.8167619974464</v>
       </c>
       <c r="N40" t="n">
-        <v>972.8105732534673</v>
+        <v>1043.491751841611</v>
       </c>
       <c r="O40" t="n">
-        <v>1274.512923149084</v>
+        <v>1345.194101737228</v>
       </c>
       <c r="P40" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q40" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R40" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S40" t="n">
-        <v>1126.472237001195</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T40" t="n">
-        <v>895.040251319474</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="U40" t="n">
-        <v>609.6561880654181</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="V40" t="n">
-        <v>343.6768428862423</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="W40" t="n">
-        <v>343.6768428862423</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="X40" t="n">
-        <v>343.6768428862423</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="Y40" t="n">
-        <v>343.6768428862423</v>
+        <v>696.7625717649835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1039.430178791686</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="C41" t="n">
-        <v>1039.430178791686</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="D41" t="n">
-        <v>1039.430178791686</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="E41" t="n">
-        <v>1031.304790077265</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="F41" t="n">
-        <v>680.1459458908846</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G41" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H41" t="n">
         <v>27.81178045956132</v>
@@ -7411,19 +7411,19 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J41" t="n">
-        <v>97.37723928323612</v>
+        <v>97.37723928323614</v>
       </c>
       <c r="K41" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L41" t="n">
-        <v>428.8631441503473</v>
+        <v>428.8631441503474</v>
       </c>
       <c r="M41" t="n">
-        <v>665.5835775618962</v>
+        <v>665.5835775618958</v>
       </c>
       <c r="N41" t="n">
-        <v>909.1333705158788</v>
+        <v>909.1333705158786</v>
       </c>
       <c r="O41" t="n">
         <v>1130.442613932449</v>
@@ -7444,19 +7444,19 @@
         <v>1390.589022978066</v>
       </c>
       <c r="U41" t="n">
-        <v>1390.589022978066</v>
+        <v>1135.015238203104</v>
       </c>
       <c r="V41" t="n">
-        <v>1390.589022978066</v>
+        <v>1135.015238203104</v>
       </c>
       <c r="W41" t="n">
-        <v>1390.589022978066</v>
+        <v>783.8563940167235</v>
       </c>
       <c r="X41" t="n">
-        <v>1039.430178791686</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="Y41" t="n">
-        <v>1039.430178791686</v>
+        <v>730.1294688323219</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>506.681377163144</v>
+        <v>614.3809235830529</v>
       </c>
       <c r="C42" t="n">
-        <v>356.0271467232362</v>
+        <v>614.3809235830529</v>
       </c>
       <c r="D42" t="n">
-        <v>356.0271467232362</v>
+        <v>484.2919562045333</v>
       </c>
       <c r="E42" t="n">
-        <v>356.0271467232362</v>
+        <v>347.845465315421</v>
       </c>
       <c r="F42" t="n">
-        <v>231.595340606368</v>
+        <v>223.4136591985528</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7323214741945</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H42" t="n">
-        <v>35.99346186737655</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I42" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J42" t="n">
-        <v>85.27368413432376</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K42" t="n">
-        <v>185.9836685913592</v>
+        <v>157.7228750988294</v>
       </c>
       <c r="L42" t="n">
-        <v>530.1544517784305</v>
+        <v>323.2495293361815</v>
       </c>
       <c r="M42" t="n">
-        <v>735.8982141975008</v>
+        <v>528.9932917552518</v>
       </c>
       <c r="N42" t="n">
-        <v>956.4530209933675</v>
+        <v>749.5480985511185</v>
       </c>
       <c r="O42" t="n">
-        <v>1143.77471345342</v>
+        <v>936.8697910111712</v>
       </c>
       <c r="P42" t="n">
-        <v>1281.550393166609</v>
+        <v>1074.64547072436</v>
       </c>
       <c r="Q42" t="n">
-        <v>1341.202308725335</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R42" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S42" t="n">
-        <v>1327.959919233271</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T42" t="n">
-        <v>1327.959919233271</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U42" t="n">
-        <v>1327.959919233271</v>
+        <v>1180.6046164196</v>
       </c>
       <c r="V42" t="n">
-        <v>1105.419917604338</v>
+        <v>958.0646147906671</v>
       </c>
       <c r="W42" t="n">
-        <v>875.3026717376251</v>
+        <v>727.9473689239539</v>
       </c>
       <c r="X42" t="n">
-        <v>685.9955940876368</v>
+        <v>727.9473689239539</v>
       </c>
       <c r="Y42" t="n">
-        <v>506.681377163144</v>
+        <v>614.3809235830529</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.7052259511322</v>
+        <v>614.74617806662</v>
       </c>
       <c r="C43" t="n">
-        <v>757.5001080171214</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="D43" t="n">
-        <v>601.8669949196362</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="E43" t="n">
-        <v>601.8669949196362</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="F43" t="n">
         <v>444.5410601326092</v>
@@ -7578,16 +7578,16 @@
         <v>534.2295411233753</v>
       </c>
       <c r="M43" t="n">
-        <v>874.6718347401278</v>
+        <v>768.2006222912064</v>
       </c>
       <c r="N43" t="n">
-        <v>1016.107986406731</v>
+        <v>1101.875612135372</v>
       </c>
       <c r="O43" t="n">
-        <v>1066.008786766879</v>
+        <v>1151.776412495519</v>
       </c>
       <c r="P43" t="n">
-        <v>1304.821397249425</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q43" t="n">
         <v>1390.589022978066</v>
@@ -7596,25 +7596,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S43" t="n">
-        <v>1205.258696202396</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T43" t="n">
-        <v>1161.785548168149</v>
+        <v>1159.157037296345</v>
       </c>
       <c r="U43" t="n">
-        <v>1161.785548168149</v>
+        <v>1121.188641318799</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.785548168149</v>
+        <v>1121.188641318799</v>
       </c>
       <c r="W43" t="n">
-        <v>1161.785548168149</v>
+        <v>837.8582392499767</v>
       </c>
       <c r="X43" t="n">
-        <v>927.7052259511322</v>
+        <v>837.8582392499767</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.7052259511322</v>
+        <v>614.74617806662</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>783.8563940167235</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="C44" t="n">
-        <v>432.6975498303432</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="D44" t="n">
-        <v>378.9706246459416</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="E44" t="n">
-        <v>378.9706246459416</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="F44" t="n">
         <v>378.9706246459416</v>
@@ -7648,25 +7648,25 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J44" t="n">
-        <v>97.37723928323614</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K44" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L44" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M44" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N44" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O44" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P44" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q44" t="n">
         <v>1390.589022978066</v>
@@ -7681,19 +7681,19 @@
         <v>1390.589022978066</v>
       </c>
       <c r="U44" t="n">
-        <v>1135.015238203104</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V44" t="n">
-        <v>1135.015238203104</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W44" t="n">
-        <v>783.8563940167235</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X44" t="n">
-        <v>783.8563940167235</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Y44" t="n">
-        <v>783.8563940167235</v>
+        <v>1081.288313018702</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>534.9307279568025</v>
+        <v>347.845465315421</v>
       </c>
       <c r="C45" t="n">
-        <v>418.7790448440614</v>
+        <v>347.845465315421</v>
       </c>
       <c r="D45" t="n">
-        <v>288.6900774655418</v>
+        <v>347.845465315421</v>
       </c>
       <c r="E45" t="n">
-        <v>152.2435865764295</v>
+        <v>347.845465315421</v>
       </c>
       <c r="F45" t="n">
-        <v>27.81178045956132</v>
+        <v>223.4136591985528</v>
       </c>
       <c r="G45" t="n">
-        <v>27.81178045956132</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H45" t="n">
         <v>27.81178045956132</v>
@@ -7736,16 +7736,16 @@
         <v>323.2495293361815</v>
       </c>
       <c r="M45" t="n">
-        <v>528.9932917552518</v>
+        <v>667.4203125232527</v>
       </c>
       <c r="N45" t="n">
-        <v>799.4446317722163</v>
+        <v>887.9751193191195</v>
       </c>
       <c r="O45" t="n">
-        <v>986.766324232269</v>
+        <v>1075.296811779172</v>
       </c>
       <c r="P45" t="n">
-        <v>1330.93710741934</v>
+        <v>1213.072491492361</v>
       </c>
       <c r="Q45" t="n">
         <v>1390.589022978066</v>
@@ -7757,22 +7757,22 @@
         <v>1277.888358601178</v>
       </c>
       <c r="T45" t="n">
-        <v>1277.888358601178</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U45" t="n">
-        <v>1277.888358601178</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="V45" t="n">
-        <v>1055.348356972245</v>
+        <v>688.9488774063707</v>
       </c>
       <c r="W45" t="n">
-        <v>1055.348356972245</v>
+        <v>688.9488774063707</v>
       </c>
       <c r="X45" t="n">
-        <v>866.0412793222565</v>
+        <v>499.6417997563823</v>
       </c>
       <c r="Y45" t="n">
-        <v>686.7270623977638</v>
+        <v>499.6417997563823</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.3695853390368</v>
+        <v>353.5757105343696</v>
       </c>
       <c r="C46" t="n">
-        <v>174.3695853390368</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="D46" t="n">
-        <v>174.3695853390368</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="E46" t="n">
-        <v>174.3695853390368</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F46" t="n">
-        <v>174.3695853390368</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G46" t="n">
-        <v>174.3695853390368</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H46" t="n">
         <v>27.81178045956132</v>
@@ -7809,19 +7809,19 @@
         <v>27.81178045956132</v>
       </c>
       <c r="K46" t="n">
-        <v>223.898758080498</v>
+        <v>59.0436853378166</v>
       </c>
       <c r="L46" t="n">
-        <v>384.4609155211901</v>
+        <v>369.3744683806939</v>
       </c>
       <c r="M46" t="n">
-        <v>724.9032091379427</v>
+        <v>709.8167619974464</v>
       </c>
       <c r="N46" t="n">
-        <v>1058.578198982108</v>
+        <v>1043.491751841611</v>
       </c>
       <c r="O46" t="n">
-        <v>1360.280548877724</v>
+        <v>1345.194101737228</v>
       </c>
       <c r="P46" t="n">
         <v>1390.589022978066</v>
@@ -7830,28 +7830,28 @@
         <v>1390.589022978066</v>
       </c>
       <c r="R46" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S46" t="n">
-        <v>1126.472237001195</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T46" t="n">
-        <v>957.7596548040518</v>
+        <v>1156.370498074265</v>
       </c>
       <c r="U46" t="n">
-        <v>957.7596548040518</v>
+        <v>870.9864348202088</v>
       </c>
       <c r="V46" t="n">
-        <v>691.7803096248761</v>
+        <v>870.9864348202088</v>
       </c>
       <c r="W46" t="n">
-        <v>408.4499075560537</v>
+        <v>587.6560327513865</v>
       </c>
       <c r="X46" t="n">
-        <v>174.3695853390368</v>
+        <v>353.5757105343696</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3695853390368</v>
+        <v>353.5757105343696</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.027671010420704</v>
+        <v>1.027671010420676</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>134.0158184886629</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>124.8646226173785</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.29285602274952</v>
       </c>
       <c r="R12" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
-        <v>72.97052852760913</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>78.21120665688912</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>78.43182600531479</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>180.4486151007266</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>50.40053860716969</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>208.4799024988715</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>19.12648722251744</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>87.04022845802041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4470161292547</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>158.4334249767866</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>258.8804411060409</v>
       </c>
       <c r="R18" t="n">
         <v>21.12823495340668</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>254.3449995307766</v>
+        <v>33.70159109505246</v>
       </c>
       <c r="P19" t="n">
-        <v>76.60079571664566</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.3010496868272</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>208.9948711537871</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N22" t="n">
-        <v>199.3374014667586</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>62.91015697006151</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>157.4676612836332</v>
+        <v>302.9255986264014</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>185.7534480866828</v>
       </c>
       <c r="R23" t="n">
         <v>1.027671010420704</v>
@@ -9716,22 +9716,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>65.09586184767613</v>
       </c>
       <c r="K24" t="n">
-        <v>5.765990409313773</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>263.2416654025093</v>
+        <v>263.2416654025092</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>281.8498168762646</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>231.95209874344</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>225.0537557712846</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>31.67319219835969</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>55.97771729220077</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>1.027671010420704</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L27" t="n">
-        <v>303.8650070002045</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>281.8498168762645</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>111.9590939904026</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>181.5210820714013</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>185.7534480866829</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>302.9255986264015</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>224.8883270446492</v>
       </c>
       <c r="R29" t="n">
         <v>1.027671010420704</v>
@@ -10193,10 +10193,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>369.336390616686</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>181.5210820714017</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>223.136903820163</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>21.12823495340668</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>84.26350409525068</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>302.9255986264015</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>224.8883270446489</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9891020749363</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>173.251333867909</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>281.8498168762645</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4334249767866</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.56144617700059</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>17.93572857186344</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
-        <v>264.5053406391771</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
         <v>254.3449995307766</v>
@@ -10764,7 +10764,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>62.17842597500305</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R39" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>12.31913390494034</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
@@ -10992,16 +10992,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>30.12023289268798</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>15.23883549545085</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>28.5462560530604</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>180.4486151007265</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>258.8804411060409</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,10 +11226,10 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>278.4750710187352</v>
+        <v>170.9283917774005</v>
       </c>
       <c r="N43" t="n">
-        <v>73.85499365356043</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>139.8252735030313</v>
       </c>
       <c r="N45" t="n">
-        <v>50.40053860716947</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>208.4799024988714</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>119.0551676030095</v>
       </c>
       <c r="R45" t="n">
         <v>21.12823495340668</v>
@@ -11457,10 +11457,10 @@
         <v>12.31913390494034</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>102.1790944026177</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
         <v>278.4750710187352</v>
@@ -11472,7 +11472,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>15.23883549545085</v>
       </c>
       <c r="Q46" t="n">
         <v>15.3010496868272</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976625</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>41.59649073758203</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23278,7 +23278,7 @@
         <v>298.1635680324936</v>
       </c>
       <c r="I11" t="n">
-        <v>51.58147895005203</v>
+        <v>51.58147895005202</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>19.64178893687881</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>37.91082327175712</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>317.6475952365973</v>
+        <v>64.62954830938452</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>107.513663119506</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>89.03624060681067</v>
       </c>
       <c r="H12" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.099864593737067</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I13" t="n">
-        <v>101.8915690324706</v>
+        <v>28.80841102716171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.99859460918927</v>
+        <v>77.99859460918924</v>
       </c>
       <c r="S13" t="n">
-        <v>12.31935340164011</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>65.0782383408054</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>59.16943043067533</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>37.91082327175712</v>
       </c>
       <c r="Y14" t="n">
-        <v>299.9877678837154</v>
+        <v>360.2675596456496</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.28168529806166</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>121.5134135517833</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>61.49196000060643</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>88.28060808012629</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>59.16943043067533</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I17" t="n">
         <v>51.58147895005203</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.3868274082149</v>
+        <v>19.75100206529643</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>128.5403228091498</v>
+        <v>19.64178893687892</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6743889408517</v>
+        <v>17.11582461434347</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>44.83948394382395</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>183.4770235079133</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>204.5230741071011</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>33.91931177090134</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.84254250976642</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23977,16 +23977,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F20" t="n">
-        <v>65.07823834080551</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H20" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>51.58147895005203</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T20" t="n">
-        <v>19.75100206529646</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0180469272126</v>
+        <v>108.8985338722712</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>19.64178893687892</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24050,22 +24050,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H21" t="n">
-        <v>73.07921327287421</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.5736577331194</v>
+        <v>85.1001334981581</v>
       </c>
       <c r="T21" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24141,13 +24141,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>95.39605288324984</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S22" t="n">
         <v>183.4770235079133</v>
@@ -24183,19 +24183,19 @@
         <v>229.1176658249033</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>191.1635483932748</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>127.8643603300208</v>
       </c>
       <c r="E23" t="n">
-        <v>156.0717719884786</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H23" t="n">
         <v>298.1635680324936</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>46.25447467598075</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.8397760093103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>149.1558947967849</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>89.47098300589079</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.0922268306807</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V26" t="n">
-        <v>273.6399562543103</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>348.3831796868265</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.67880562956211</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>77.05219224930156</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>112.4784329041947</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T28" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.8128237553186</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>360.0482047094745</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>144.2926558843801</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T29" t="n">
         <v>211.5718775168518</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>46.25447467598029</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1897232950144172</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>9.470225630945635</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V31" t="n">
-        <v>202.4822094656171</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>298.1635680324936</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>329.4779362204173</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>276.3899142208918</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>46.25447467598052</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I33" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>9.497495740646912</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>64.27322818068571</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>216.2113860362998</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>41.59649073758214</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>75.37901463572865</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>50.91043389010434</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H35" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>51.58147895005203</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0180469272126</v>
+        <v>223.2853612804862</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.87854624408834</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.6966856354849</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>23.17888753055225</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -25253,7 +25253,7 @@
         <v>75.9714710107498</v>
       </c>
       <c r="I36" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>15.82384477884085</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>166.4670727961033</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>328.885772792315</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G38" t="n">
         <v>406.8166861751919</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>19.75100206529646</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>19.64178893687892</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>37.91082327175724</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H39" t="n">
-        <v>49.24992174335183</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I39" t="n">
         <v>8.099864593737074</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>45.35427758790073</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>60.05660294249573</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15.74175353265483</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>390.5135548073443</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F41" t="n">
         <v>65.07823834080551</v>
       </c>
       <c r="G41" t="n">
-        <v>59.16943043067545</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I41" t="n">
         <v>51.58147895005203</v>
@@ -25684,16 +25684,16 @@
         <v>211.5718775168518</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>19.64178893687892</v>
       </c>
       <c r="X41" t="n">
-        <v>37.91082327175724</v>
+        <v>332.3684230837162</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25709,13 +25709,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>49.57084502577258</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T42" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>65.0902938677558</v>
       </c>
     </row>
     <row r="43">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T43" t="n">
-        <v>186.0792492709987</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5302226215153</v>
+        <v>244.9415106037444</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>41.5964907375822</v>
       </c>
       <c r="D44" t="n">
-        <v>328.3970615629414</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G44" t="n">
         <v>59.16943043067545</v>
@@ -25921,19 +25921,19 @@
         <v>211.5718775168518</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>19.64178893687892</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>86.31809912883477</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>34.1575218538951</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>8.099864593737074</v>
@@ -25997,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>15.58735178928055</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26040,7 +26040,7 @@
         <v>165.5781910131661</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I46" t="n">
         <v>101.8915690324706</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.09220944973202</v>
+        <v>180.7183496780533</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372416.0816297251</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372416.0816297253</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372416.0816297253</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372416.0816297253</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474520.618121681</v>
+        <v>474520.6181216809</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474520.618121681</v>
+        <v>474520.6181216808</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474520.6181216808</v>
+        <v>474520.6181216812</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474520.618121681</v>
+        <v>474520.6181216809</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372416.0816297251</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372416.0816297251</v>
+        <v>372416.0816297252</v>
       </c>
     </row>
     <row r="15">
@@ -26322,31 +26322,31 @@
         <v>575677.5082070945</v>
       </c>
       <c r="E2" t="n">
+        <v>297210.959607179</v>
+      </c>
+      <c r="F2" t="n">
+        <v>297210.959607179</v>
+      </c>
+      <c r="G2" t="n">
         <v>297210.9596071789</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>297210.9596071787</v>
+      </c>
+      <c r="I2" t="n">
+        <v>353152.8257814109</v>
+      </c>
+      <c r="J2" t="n">
+        <v>353152.825781411</v>
+      </c>
+      <c r="K2" t="n">
+        <v>353152.825781411</v>
+      </c>
+      <c r="L2" t="n">
+        <v>353152.825781411</v>
+      </c>
+      <c r="M2" t="n">
         <v>297210.9596071788</v>
-      </c>
-      <c r="G2" t="n">
-        <v>297210.959607179</v>
-      </c>
-      <c r="H2" t="n">
-        <v>297210.959607179</v>
-      </c>
-      <c r="I2" t="n">
-        <v>353152.825781411</v>
-      </c>
-      <c r="J2" t="n">
-        <v>353152.8257814111</v>
-      </c>
-      <c r="K2" t="n">
-        <v>353152.8257814111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>353152.8257814111</v>
-      </c>
-      <c r="M2" t="n">
-        <v>297210.959607179</v>
       </c>
       <c r="N2" t="n">
         <v>297210.9596071789</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>546348.2535450244</v>
+        <v>546348.2535450245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>32819.01035030109</v>
+        <v>32819.01035030106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>19779.52994075715</v>
       </c>
       <c r="F4" t="n">
-        <v>19779.52994075715</v>
+        <v>19779.52994075716</v>
       </c>
       <c r="G4" t="n">
-        <v>19779.52994075715</v>
+        <v>19779.52994075714</v>
       </c>
       <c r="H4" t="n">
         <v>19779.52994075714</v>
       </c>
       <c r="I4" t="n">
+        <v>55560.12106204245</v>
+      </c>
+      <c r="J4" t="n">
+        <v>55560.12106204245</v>
+      </c>
+      <c r="K4" t="n">
         <v>55560.12106204248</v>
       </c>
-      <c r="J4" t="n">
-        <v>55560.12106204247</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55560.12106204247</v>
-      </c>
       <c r="L4" t="n">
-        <v>55560.12106204247</v>
+        <v>55560.12106204245</v>
       </c>
       <c r="M4" t="n">
         <v>19779.52994075714</v>
@@ -26484,16 +26484,16 @@
         <v>33145.3173208985</v>
       </c>
       <c r="G5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="H5" t="n">
         <v>33145.31732089849</v>
       </c>
       <c r="I5" t="n">
-        <v>40649.03394838675</v>
+        <v>40649.03394838674</v>
       </c>
       <c r="J5" t="n">
-        <v>40649.03394838675</v>
+        <v>40649.03394838674</v>
       </c>
       <c r="K5" t="n">
         <v>40649.03394838675</v>
@@ -26502,7 +26502,7 @@
         <v>40649.03394838674</v>
       </c>
       <c r="M5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="N5" t="n">
         <v>33145.31732089849</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141963.3752456287</v>
+        <v>141959.0456778423</v>
       </c>
       <c r="C6" t="n">
-        <v>141963.3752456286</v>
+        <v>141959.0456778422</v>
       </c>
       <c r="D6" t="n">
-        <v>141963.3752456286</v>
+        <v>141959.0456778422</v>
       </c>
       <c r="E6" t="n">
-        <v>-302062.1411995012</v>
+        <v>-302936.6787316622</v>
       </c>
       <c r="F6" t="n">
-        <v>244286.1123455232</v>
+        <v>243411.5748133624</v>
       </c>
       <c r="G6" t="n">
-        <v>244286.1123455233</v>
+        <v>243411.5748133622</v>
       </c>
       <c r="H6" t="n">
-        <v>244286.1123455234</v>
+        <v>243411.5748133619</v>
       </c>
       <c r="I6" t="n">
-        <v>224124.6604206807</v>
+        <v>223424.9412203139</v>
       </c>
       <c r="J6" t="n">
-        <v>256943.6707709819</v>
+        <v>256243.9515706152</v>
       </c>
       <c r="K6" t="n">
-        <v>256943.6707709819</v>
+        <v>256243.9515706151</v>
       </c>
       <c r="L6" t="n">
-        <v>256943.6707709819</v>
+        <v>256243.9515706151</v>
       </c>
       <c r="M6" t="n">
-        <v>188406.8841518844</v>
+        <v>187532.346619723</v>
       </c>
       <c r="N6" t="n">
-        <v>244286.1123455233</v>
+        <v>243411.5748133622</v>
       </c>
       <c r="O6" t="n">
-        <v>244286.1123455233</v>
+        <v>243411.5748133621</v>
       </c>
       <c r="P6" t="n">
-        <v>244286.1123455232</v>
+        <v>243411.574813362</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.8423931941231</v>
+        <v>550.8423931941232</v>
       </c>
       <c r="F3" t="n">
         <v>550.8423931941231</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445167</v>
       </c>
       <c r="F4" t="n">
         <v>347.6472557445166</v>
       </c>
       <c r="G4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H4" t="n">
         <v>347.6472557445165</v>
       </c>
       <c r="I4" t="n">
-        <v>471.0636476439945</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="J4" t="n">
-        <v>471.0636476439945</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="K4" t="n">
         <v>471.0636476439945</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.8423931941231</v>
+        <v>550.8423931941232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445167</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.416391899478</v>
+        <v>123.4163918994779</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.214441781684915</v>
+        <v>2.214441781684916</v>
       </c>
       <c r="H11" t="n">
-        <v>22.67865189668064</v>
+        <v>22.67865189668065</v>
       </c>
       <c r="I11" t="n">
-        <v>85.37226678840779</v>
+        <v>85.3722667884078</v>
       </c>
       <c r="J11" t="n">
         <v>187.9479781682803</v>
       </c>
       <c r="K11" t="n">
-        <v>281.6852987870028</v>
+        <v>281.6852987870029</v>
       </c>
       <c r="L11" t="n">
-        <v>349.4555214632426</v>
+        <v>349.4555214632427</v>
       </c>
       <c r="M11" t="n">
-        <v>388.8366004982817</v>
+        <v>388.8366004982818</v>
       </c>
       <c r="N11" t="n">
-        <v>395.128383210494</v>
+        <v>395.1283832104941</v>
       </c>
       <c r="O11" t="n">
-        <v>373.1085277438646</v>
+        <v>373.1085277438647</v>
       </c>
       <c r="P11" t="n">
-        <v>318.4394962585182</v>
+        <v>318.4394962585183</v>
       </c>
       <c r="Q11" t="n">
         <v>239.1347999519271</v>
@@ -31788,10 +31788,10 @@
         <v>139.1029285687652</v>
       </c>
       <c r="S11" t="n">
-        <v>50.46159210014506</v>
+        <v>50.46159210014507</v>
       </c>
       <c r="T11" t="n">
-        <v>9.693718899325722</v>
+        <v>9.693718899325724</v>
       </c>
       <c r="U11" t="n">
         <v>0.1771553425347932</v>
@@ -31840,40 +31840,40 @@
         <v>40.79351685447045</v>
       </c>
       <c r="J12" t="n">
-        <v>111.9405282244774</v>
+        <v>111.9405282244775</v>
       </c>
       <c r="K12" t="n">
-        <v>191.3241923606418</v>
+        <v>191.3241923606419</v>
       </c>
       <c r="L12" t="n">
-        <v>257.2589875007082</v>
+        <v>257.2589875007083</v>
       </c>
       <c r="M12" t="n">
         <v>300.2091042907971</v>
       </c>
       <c r="N12" t="n">
-        <v>308.1547459813048</v>
+        <v>308.1547459813049</v>
       </c>
       <c r="O12" t="n">
-        <v>281.9013896566188</v>
+        <v>281.9013896566189</v>
       </c>
       <c r="P12" t="n">
         <v>226.2507180649598</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.242613316243</v>
+        <v>151.2426133162431</v>
       </c>
       <c r="R12" t="n">
-        <v>73.56344262316991</v>
+        <v>73.56344262316992</v>
       </c>
       <c r="S12" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T12" t="n">
-        <v>4.775699616466028</v>
+        <v>4.775699616466029</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07794939526331934</v>
+        <v>0.07794939526331936</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9933223483828448</v>
+        <v>0.9933223483828451</v>
       </c>
       <c r="H13" t="n">
-        <v>8.831538697440209</v>
+        <v>8.831538697440211</v>
       </c>
       <c r="I13" t="n">
-        <v>29.87191207682229</v>
+        <v>29.8719120768223</v>
       </c>
       <c r="J13" t="n">
-        <v>70.22789003066713</v>
+        <v>70.22789003066714</v>
       </c>
       <c r="K13" t="n">
         <v>115.4059964757523</v>
@@ -31934,25 +31934,25 @@
         <v>152.0054099120767</v>
       </c>
       <c r="O13" t="n">
-        <v>140.4015988423316</v>
+        <v>140.4015988423317</v>
       </c>
       <c r="P13" t="n">
         <v>120.1378229353215</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.1772013723126</v>
+        <v>83.17720137231261</v>
       </c>
       <c r="R13" t="n">
-        <v>44.66338486455954</v>
+        <v>44.66338486455955</v>
       </c>
       <c r="S13" t="n">
-        <v>17.31089947136284</v>
+        <v>17.31089947136285</v>
       </c>
       <c r="T13" t="n">
-        <v>4.244195488544881</v>
+        <v>4.244195488544882</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05418121900270069</v>
+        <v>0.0541812190027007</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>349.4555214632426</v>
       </c>
       <c r="M41" t="n">
-        <v>388.8366004982817</v>
+        <v>388.8366004982813</v>
       </c>
       <c r="N41" t="n">
         <v>395.128383210494</v>
@@ -34389,7 +34389,7 @@
         <v>318.4394962585182</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.1347999519267</v>
+        <v>239.1347999519271</v>
       </c>
       <c r="R44" t="n">
         <v>139.1029285687652</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>70.26814022593416</v>
+        <v>70.26814022593422</v>
       </c>
       <c r="K11" t="n">
-        <v>138.6268956077654</v>
+        <v>138.6268956077655</v>
       </c>
       <c r="L11" t="n">
-        <v>196.2073517327509</v>
+        <v>196.207351732751</v>
       </c>
       <c r="M11" t="n">
         <v>239.1115489005545</v>
       </c>
       <c r="N11" t="n">
-        <v>246.0098918727099</v>
+        <v>246.00989187271</v>
       </c>
       <c r="O11" t="n">
-        <v>223.5446903197682</v>
+        <v>223.5446903197683</v>
       </c>
       <c r="P11" t="n">
-        <v>168.138049017593</v>
+        <v>168.1380490175931</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.63610153353491</v>
+        <v>94.63610153353497</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K12" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L12" t="n">
-        <v>301.2144591324529</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M12" t="n">
         <v>207.8219822414852</v>
       </c>
       <c r="N12" t="n">
-        <v>347.6472557445166</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O12" t="n">
         <v>189.21383076773</v>
       </c>
       <c r="P12" t="n">
-        <v>139.1673532456451</v>
+        <v>139.1673532456452</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307858</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.88556995225382</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.15340255850807</v>
       </c>
       <c r="K13" t="n">
         <v>198.0676541625623</v>
       </c>
       <c r="L13" t="n">
-        <v>60.00490301222283</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M13" t="n">
-        <v>343.8811046633864</v>
+        <v>343.8811046633865</v>
       </c>
       <c r="N13" t="n">
-        <v>141.9803345372843</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O13" t="n">
-        <v>304.7498483794105</v>
+        <v>50.40484884863385</v>
       </c>
       <c r="P13" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337557</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.63396538246508</v>
+        <v>62.91015697006193</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>29.49607089114409</v>
       </c>
       <c r="K15" t="n">
-        <v>101.7272570273085</v>
+        <v>180.1590830326233</v>
       </c>
       <c r="L15" t="n">
-        <v>167.19864064379</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="M15" t="n">
         <v>207.8219822414852</v>
@@ -35740,10 +35740,10 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O15" t="n">
-        <v>239.6143693748997</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P15" t="n">
-        <v>347.6472557445166</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q15" t="n">
         <v>60.25446016032903</v>
@@ -35810,22 +35810,22 @@
         <v>198.0676541625623</v>
       </c>
       <c r="L16" t="n">
-        <v>79.13139023474027</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M16" t="n">
-        <v>343.8811046633864</v>
+        <v>65.4060336446512</v>
       </c>
       <c r="N16" t="n">
         <v>337.0454442870355</v>
       </c>
       <c r="O16" t="n">
-        <v>50.40484884863382</v>
+        <v>304.7498483794105</v>
       </c>
       <c r="P16" t="n">
-        <v>241.2248590732796</v>
+        <v>117.654848761396</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>129.9430870203988</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K18" t="n">
         <v>101.7272570273085</v>
@@ -35977,13 +35977,13 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O18" t="n">
-        <v>347.6472557445166</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P18" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.25446016032903</v>
+        <v>319.1349012663699</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,13 +36056,13 @@
         <v>69.00980600967515</v>
       </c>
       <c r="O19" t="n">
-        <v>304.7498483794105</v>
+        <v>84.10643994368628</v>
       </c>
       <c r="P19" t="n">
-        <v>107.2154160200212</v>
+        <v>241.2248590732796</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K21" t="n">
         <v>101.7272570273085</v>
@@ -36220,7 +36220,7 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q21" t="n">
-        <v>269.2493313141161</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R21" t="n">
         <v>49.8855699522538</v>
@@ -36281,25 +36281,25 @@
         <v>40.15340255850806</v>
       </c>
       <c r="K22" t="n">
-        <v>31.54737866490433</v>
+        <v>198.0676541625623</v>
       </c>
       <c r="L22" t="n">
-        <v>60.00490301222283</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M22" t="n">
         <v>343.8811046633864</v>
       </c>
       <c r="N22" t="n">
-        <v>268.3472074764338</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O22" t="n">
-        <v>304.7498483794105</v>
+        <v>113.3150058186953</v>
       </c>
       <c r="P22" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,10 +36375,10 @@
         <v>223.5446903197682</v>
       </c>
       <c r="P23" t="n">
-        <v>325.6057103012262</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="Q23" t="n">
-        <v>425.8474869629862</v>
+        <v>280.3895496202177</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>226.1980860221819</v>
+        <v>94.59193273882022</v>
       </c>
       <c r="K24" t="n">
-        <v>107.4932474366223</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L24" t="n">
         <v>167.19864064379</v>
       </c>
       <c r="M24" t="n">
-        <v>471.0636476439945</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="N24" t="n">
         <v>222.7826331271382</v>
       </c>
       <c r="O24" t="n">
-        <v>471.0636476439945</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P24" t="n">
         <v>139.1673532456451</v>
@@ -36460,7 +36460,7 @@
         <v>60.25446016032903</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>40.15340255850806</v>
       </c>
       <c r="K25" t="n">
-        <v>198.0676541625624</v>
+        <v>198.0676541625623</v>
       </c>
       <c r="L25" t="n">
         <v>313.4654374170477</v>
@@ -36603,22 +36603,22 @@
         <v>196.2073517327509</v>
       </c>
       <c r="M26" t="n">
-        <v>471.0636476439945</v>
+        <v>239.1115489005545</v>
       </c>
       <c r="N26" t="n">
-        <v>471.0636476439945</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O26" t="n">
-        <v>255.2178825181279</v>
+        <v>223.5446903197682</v>
       </c>
       <c r="P26" t="n">
-        <v>168.138049017593</v>
+        <v>224.1157663097938</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.63610153353491</v>
+        <v>425.8474869629862</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>101.4899439914319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K27" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L27" t="n">
-        <v>471.0636476439945</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M27" t="n">
         <v>207.8219822414852</v>
@@ -36688,16 +36688,16 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O27" t="n">
-        <v>471.0636476439945</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P27" t="n">
-        <v>251.1264472360477</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.25446016032903</v>
+        <v>241.7755422317303</v>
       </c>
       <c r="R27" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.021588312617</v>
+        <v>334.0588598943692</v>
       </c>
       <c r="K29" t="n">
         <v>138.6268956077654</v>
@@ -36849,10 +36849,10 @@
         <v>223.5446903197682</v>
       </c>
       <c r="P29" t="n">
-        <v>471.0636476439945</v>
+        <v>168.138049017593</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.63610153353491</v>
+        <v>319.5244285781841</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K30" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439945</v>
       </c>
       <c r="L30" t="n">
-        <v>167.19864064379</v>
+        <v>348.7197227151917</v>
       </c>
       <c r="M30" t="n">
         <v>207.8219822414852</v>
@@ -36928,10 +36928,10 @@
         <v>189.21383076773</v>
       </c>
       <c r="P30" t="n">
-        <v>362.3042570658081</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q30" t="n">
-        <v>387.9750290282536</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>70.26814022593416</v>
+        <v>334.0588598943692</v>
       </c>
       <c r="K32" t="n">
         <v>138.6268956077654</v>
@@ -37080,19 +37080,19 @@
         <v>239.1115489005545</v>
       </c>
       <c r="N32" t="n">
-        <v>330.2733959679606</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O32" t="n">
         <v>223.5446903197682</v>
       </c>
       <c r="P32" t="n">
-        <v>471.0636476439944</v>
+        <v>168.138049017593</v>
       </c>
       <c r="Q32" t="n">
-        <v>94.63610153353491</v>
+        <v>319.5244285781839</v>
       </c>
       <c r="R32" t="n">
-        <v>101.4899439914319</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>167.4851729660803</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K33" t="n">
-        <v>101.7272570273085</v>
+        <v>274.9785908952175</v>
       </c>
       <c r="L33" t="n">
         <v>167.19864064379</v>
@@ -37162,7 +37162,7 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O33" t="n">
-        <v>471.0636476439944</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P33" t="n">
         <v>139.1673532456451</v>
@@ -37171,7 +37171,7 @@
         <v>387.9750290282536</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K36" t="n">
         <v>101.7272570273085</v>
@@ -37399,13 +37399,13 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O36" t="n">
-        <v>347.6472557445165</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P36" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.8159063373296</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R36" t="n">
         <v>49.8855699522538</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K37" t="n">
         <v>31.54737866490433</v>
       </c>
       <c r="L37" t="n">
-        <v>313.4654374170477</v>
+        <v>77.94063158408626</v>
       </c>
       <c r="M37" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N37" t="n">
-        <v>333.5151466488523</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O37" t="n">
         <v>304.7498483794105</v>
@@ -37484,7 +37484,7 @@
         <v>241.2248590732796</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>138.6268956077654</v>
       </c>
       <c r="L38" t="n">
-        <v>196.2073517327505</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M38" t="n">
         <v>239.1115489005545</v>
@@ -37639,13 +37639,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P39" t="n">
-        <v>201.3457792206482</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L40" t="n">
         <v>313.4654374170477</v>
@@ -37712,16 +37712,16 @@
         <v>343.8811046633864</v>
       </c>
       <c r="N40" t="n">
-        <v>99.13003890236313</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O40" t="n">
         <v>304.7498483794105</v>
       </c>
       <c r="P40" t="n">
-        <v>30.61462030337555</v>
+        <v>45.8534557988264</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>196.2073517327509</v>
       </c>
       <c r="M41" t="n">
-        <v>239.1115489005545</v>
+        <v>239.111548900554</v>
       </c>
       <c r="N41" t="n">
         <v>246.0098918727099</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>58.04232694420448</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K42" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L42" t="n">
-        <v>347.6472557445165</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M42" t="n">
         <v>207.8219822414852</v>
@@ -37879,10 +37879,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.25446016032903</v>
+        <v>319.1349012663699</v>
       </c>
       <c r="R42" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,10 +37946,10 @@
         <v>313.4654374170477</v>
       </c>
       <c r="M43" t="n">
-        <v>343.8811046633864</v>
+        <v>236.3344254220517</v>
       </c>
       <c r="N43" t="n">
-        <v>142.8647996632356</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O43" t="n">
         <v>50.40484884863382</v>
@@ -37958,7 +37958,7 @@
         <v>241.2248590732796</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.63610153353453</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>167.19864064379</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8219822414852</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="N45" t="n">
-        <v>273.1831717343076</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O45" t="n">
         <v>189.21383076773</v>
       </c>
       <c r="P45" t="n">
-        <v>347.6472557445165</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.25446016032903</v>
+        <v>179.3096277633386</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L46" t="n">
-        <v>162.1839974148405</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M46" t="n">
         <v>343.8811046633864</v>
@@ -38192,7 +38192,7 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P46" t="n">
-        <v>30.61462030337555</v>
+        <v>45.8534557988264</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
